--- a/COVID-19 DASHBOARD.xlsx
+++ b/COVID-19 DASHBOARD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rraja\Downloads\Minor Assignment -Raj Kishore Agrawal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rraja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA03348-EA50-4251-BD68-CDF40908E520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97490316-1147-47B9-BFE7-99DD20F65CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,14 +549,14 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[covid dataset.xlsx]Sheet3!PivotTable2</c:name>
+    <c:name>[COVID-19 DASHBOARD.xlsx]Sheet3!PivotTable2</c:name>
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
@@ -653,21 +653,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -797,21 +797,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1426,8 +1426,595 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[covid dataset.xlsx]Sheet5!PivotTable4</c:name>
+    <c:name>[COVID-19 DASHBOARD.xlsx]Sheet5!PivotTable4</c:name>
     <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Death over Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="22225" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:glow rad="139700">
+              <a:schemeClr val="accent2">
+                <a:satMod val="175000"/>
+                <a:alpha val="14000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31-Mar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01-Apr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>02-Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAC9-4BA1-A006-0452979AEF3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="519219935"/>
+        <c:axId val="538431007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="519219935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538431007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538431007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519219935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[COVID-19 DASHBOARD.xlsx]Sheet5!PivotTable5</c:name>
+    <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1448,7 +2035,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Death over Time</a:t>
+              <a:t>Positive over Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1514,7 +2101,7 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
-          <a:ln w="25400" cap="rnd">
+          <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1528,536 +2115,16 @@
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="14"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ED7D31"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="22225">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent2"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>30-Mar</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31-Mar</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01-Apr</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>02-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$B$4:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DAC9-4BA1-A006-0452979AEF3F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1"/>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="lt1">
-                      <a:alpha val="0"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="519219935"/>
-        <c:axId val="538431007"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="519219935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="538431007"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="538431007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519219935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="accent2"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[covid dataset.xlsx]Sheet5!PivotTable5</c:name>
-    <c:fmtId val="7"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Positive over Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:ln w="31750" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="17"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2123,23 +2190,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="17"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2186,9 +2260,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2255,6 +2329,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="519236255"/>
@@ -2273,12 +2368,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
+              <a:schemeClr val="lt1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2289,12 +2381,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2316,38 +2405,36 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="519236255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2364,12 +2451,7 @@
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2382,10 +2464,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2408,31 +2487,12 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent2"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent2"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2473,42 +2533,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3058,7 +3084,556 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3077,7 +3652,15 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0">
@@ -3096,9 +3679,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3107,18 +3688,11 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
@@ -3197,7 +3771,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
@@ -3223,9 +3797,15 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3465,6 +4045,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3570,574 +4161,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4150,8 +4173,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4827,8 +4850,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4865,8 +4888,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4903,11 +4926,11 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>285348</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68809</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="21" name="State 1">
@@ -4930,7 +4953,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4941,7 +4964,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="10751820" y="1280160"/>
-              <a:ext cx="3558540" cy="3794760"/>
+              <a:ext cx="3554328" cy="4640809"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6008,7 +6031,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1575F605-8AC9-4F27-AB53-6012CC0756B8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1575F605-8AC9-4F27-AB53-6012CC0756B8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A3:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -7298,7 +7321,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60F46287-B6B3-4F24-B373-18AEAF276DE7}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60F46287-B6B3-4F24-B373-18AEAF276DE7}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="D5:E10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -7851,7 +7874,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F5AD175-5DB5-4F55-87F7-2753F2E9CCD0}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F5AD175-5DB5-4F55-87F7-2753F2E9CCD0}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
